--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1559258.898737447</v>
+        <v>1665332.496890289</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10402249.08566168</v>
+        <v>10417401.00078941</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>171.0483567097093</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>256.2051417968402</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>1.217633493452475</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>82.55420345935651</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>327.4935894361036</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>236.4123960965157</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>5.417911179179379</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>23.94563726208598</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>147.6364325960775</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>238.6591887249599</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>112.0808863526773</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>7.753816247937475</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722596</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>25.73194049497363</v>
+        <v>172.0260335000776</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>114.5006452705931</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>172.026033500079</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>13.94435783112388</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2482,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410134</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>100.5858322992699</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>41.55695577160878</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>73.95046331124178</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>140.1230996349835</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>135.3135037226517</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>172.0260335000785</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>115.2302178375792</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>98.99704524587868</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866151</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X2" t="n">
-        <v>2689.770379977556</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="Y2" t="n">
-        <v>2689.770379977556</v>
+        <v>1617.332751740275</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>629.570363233848</v>
+        <v>520.2684398664087</v>
       </c>
       <c r="C4" t="n">
-        <v>629.570363233848</v>
+        <v>351.3322569385018</v>
       </c>
       <c r="D4" t="n">
-        <v>479.4537238215122</v>
+        <v>201.2156175261661</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1843.906463786112</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1843.906463786112</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1622.139848355639</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U4" t="n">
-        <v>1333.036981481282</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V4" t="n">
-        <v>1078.352493275395</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="W4" t="n">
-        <v>1078.352493275395</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="X4" t="n">
-        <v>850.3629423773781</v>
+        <v>922.7094838401786</v>
       </c>
       <c r="Y4" t="n">
-        <v>629.570363233848</v>
+        <v>701.9169046966484</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1660.900948886692</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>2722.984276312612</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X5" t="n">
-        <v>2349.518518051532</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="Y5" t="n">
-        <v>1959.379186075721</v>
+        <v>2047.500788950813</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.0144869816389</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269123</v>
+        <v>837.079342274803</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>686.9627028624673</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>539.0496092800742</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>392.1596617821638</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>224.1731970904424</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>75.43429895394854</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251691</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.0144869816389</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3066.187443443257</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2735.124556099686</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.355900829572</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.890142568492</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="Y8" t="n">
-        <v>1618.75081059268</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>793.5809963705854</v>
+        <v>626.9042569062804</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6448134426785</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D10" t="n">
-        <v>474.5281740303427</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>326.6150804479496</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>179.7251329500392</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>179.7251329500392</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1318.762470917011</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.011591242373</v>
+        <v>1029.34530088005</v>
       </c>
       <c r="X10" t="n">
-        <v>1196.022040344355</v>
+        <v>1029.34530088005</v>
       </c>
       <c r="Y10" t="n">
-        <v>975.2294612008251</v>
+        <v>808.5527217365201</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,37 +5056,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5194,28 +5196,28 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
@@ -5224,13 +5226,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
         <v>2018.514925172274</v>
@@ -5270,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5297,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5367,16 +5369,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5510,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5598,19 +5600,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138411</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3584617859342</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>747.3584617859342</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5747,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.19898568143</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="23">
@@ -5981,13 +5983,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6177,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6215,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2815.530845237133</v>
+        <v>2804.65264778894</v>
       </c>
       <c r="C28" t="n">
-        <v>2646.594662309226</v>
+        <v>2635.716464861033</v>
       </c>
       <c r="D28" t="n">
-        <v>2646.594662309226</v>
+        <v>2485.599825448698</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309226</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H28" t="n">
         <v>2337.686731866304</v>
@@ -6415,19 +6417,19 @@
         <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>3979.184900903575</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>3724.500412697688</v>
       </c>
       <c r="W28" t="n">
-        <v>3445.96144010892</v>
+        <v>3435.083242660728</v>
       </c>
       <c r="X28" t="n">
-        <v>3217.971889210903</v>
+        <v>3207.09369176271</v>
       </c>
       <c r="Y28" t="n">
-        <v>2997.179310067373</v>
+        <v>2986.30111261918</v>
       </c>
     </row>
     <row r="29">
@@ -6455,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2257.062161108198</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>2854.44064873475</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>2965.647484649472</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>2796.711301721565</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>2646.59466230923</v>
       </c>
       <c r="E31" t="n">
-        <v>444.7013164925216</v>
+        <v>2646.59466230923</v>
       </c>
       <c r="F31" t="n">
-        <v>444.7013164925216</v>
+        <v>2646.59466230923</v>
       </c>
       <c r="G31" t="n">
-        <v>277.5052172074016</v>
+        <v>2479.39856302411</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866308</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866308</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296631</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.61201282217</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>4648.856429396968</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>4429.254964419909</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>4140.179737764107</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>3885.49524955822</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>3596.078079521259</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>3368.088528623242</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>3147.295949479712</v>
       </c>
     </row>
     <row r="32">
@@ -6680,25 +6682,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>250.6008040881813</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2305.424599100479</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2085.82313412342</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1796.747907467618</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1542.063419261731</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1252.64624922477</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1024.656698326753</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>803.8641191832229</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6922,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>916.2946447138411</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,22 +7256,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2273.199413378161</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>2273.199413378161</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="41">
@@ -7412,7 +7414,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2490.32382148308</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>3087.702309109632</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>3715.300272664238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>4267.210002903525</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>580.8993044876688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>580.8993044876688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>434.0093569897584</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>641.8461362382112</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>472.9099533103043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.287180211981</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>823.4946010684509</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8064,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>199.7516311504066</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8301,10 +8303,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>255.5240487471575</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>260.4525338942705</v>
+        <v>114.1584408891665</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>31.93331737597606</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>9.000252501565598</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>211.7652975579133</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.45968844823074</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>139.4693302300358</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>66.34424953498211</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>40.90318636666106</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>13.30196929556061</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>40.32043864788469</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>9.000252501566052</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>50.2939204546896</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>126.7126101431585</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>911075.218395872</v>
+        <v>918799.7241472641</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>911075.218395872</v>
+        <v>918799.7241472641</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="13">
@@ -26314,7 +26316,7 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
@@ -26326,28 +26328,28 @@
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.2897985041</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985042</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985037</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309559</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309554</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309565</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26439,7 +26441,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
@@ -26454,7 +26456,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-990915.8270402973</v>
+        <v>-809534.5425809631</v>
       </c>
       <c r="C6" t="n">
-        <v>337828.9186872955</v>
+        <v>305217.2409949563</v>
       </c>
       <c r="D6" t="n">
-        <v>337828.9186872959</v>
+        <v>145201.7782469575</v>
       </c>
       <c r="E6" t="n">
-        <v>89383.04177549714</v>
+        <v>89383.04177549787</v>
       </c>
       <c r="F6" t="n">
+        <v>414795.5035828522</v>
+      </c>
+      <c r="G6" t="n">
+        <v>414795.5035828524</v>
+      </c>
+      <c r="H6" t="n">
+        <v>414795.5035828527</v>
+      </c>
+      <c r="I6" t="n">
+        <v>414795.5035828524</v>
+      </c>
+      <c r="J6" t="n">
+        <v>247190.32577287</v>
+      </c>
+      <c r="K6" t="n">
         <v>414795.5035828525</v>
       </c>
-      <c r="G6" t="n">
-        <v>414795.5035828527</v>
-      </c>
-      <c r="H6" t="n">
-        <v>414795.5035828525</v>
-      </c>
-      <c r="I6" t="n">
-        <v>414795.5035828525</v>
-      </c>
-      <c r="J6" t="n">
-        <v>197264.3011855753</v>
-      </c>
-      <c r="K6" t="n">
-        <v>414795.5035828523</v>
-      </c>
       <c r="L6" t="n">
-        <v>414795.5035828527</v>
+        <v>366501.5335746617</v>
       </c>
       <c r="M6" t="n">
-        <v>329740.4756473409</v>
+        <v>329740.4756473406</v>
       </c>
       <c r="N6" t="n">
-        <v>414795.5035828525</v>
+        <v>414795.5035828524</v>
       </c>
       <c r="O6" t="n">
         <v>414795.5035828525</v>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>198.6827439687597</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>130.0327968592134</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>145.2163291531167</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.377949210690815</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>37.77930233490395</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>112.8285726208973</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>161.8289099194484</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>80.8509579418146</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>103.3587393628245</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>147.5787499310937</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>32.6741285616435</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>244.3838270758905</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29509,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29697,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510285</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32087,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q15" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,7 +32320,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32333,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -33020,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,10 +33046,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33259,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338203</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33284,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33737,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33907,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33974,25 +33976,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34132,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,19 +34207,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209185</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,10 +34231,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>637.8521160493917</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>566.6829634324471</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>622.455381029198</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366982</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35735,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q15" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35981,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,10 +36694,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394616</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36932,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,7 +36995,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191275</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37148,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,10 +37879,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>499.2977362695175</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1665332.496890289</v>
+        <v>1661236.855385524</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>71.39346770308133</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>256.2051417968402</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>146.038922838762</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.217633493452475</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>327.4935894361036</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>84.49712706373823</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542854</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>23.94563726208598</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674902071</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>238.6591887249599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>7.753816247937475</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000776</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>115.7063133373732</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>172.026033500079</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>169.8538311717799</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>41.55695577161151</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812466</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>-4.147674796210292e-12</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>239.7247859410134</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>34.21058558914873</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>41.55695577160878</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>138.2893995353468</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>73.95046331124178</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>14.53306611597379</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>99.9742741983392</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.332751740275</v>
+        <v>1254.111199477248</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>1254.111199477248</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>1254.111199477248</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1876.125824262336</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.332751740275</v>
+        <v>1254.111199477248</v>
       </c>
     </row>
     <row r="3">
@@ -4403,13 +4403,13 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
         <v>298.3188265310613</v>
@@ -4418,16 +4418,16 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1154.038517360656</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.2684398664087</v>
+        <v>937.5665200750353</v>
       </c>
       <c r="C4" t="n">
-        <v>351.3322569385018</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="D4" t="n">
-        <v>201.2156175261661</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1150.699034738196</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V4" t="n">
-        <v>1150.699034738196</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W4" t="n">
-        <v>1150.699034738196</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="X4" t="n">
-        <v>922.7094838401786</v>
+        <v>1305.873162692062</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.9169046966484</v>
+        <v>1085.080583548532</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1660.900948886692</v>
+        <v>918.0161179218674</v>
       </c>
       <c r="C5" t="n">
-        <v>1330.099343395678</v>
+        <v>918.0161179218674</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>918.0161179218674</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>918.0161179218674</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>507.0302131322598</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>1975.313418796632</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>1644.250531453061</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926625</v>
+        <v>1291.481876182947</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926625</v>
+        <v>918.0161179218674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.500788950813</v>
+        <v>918.0161179218674</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380218</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M6" t="n">
-        <v>1209.253210781439</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1006.01552520271</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C7" t="n">
-        <v>837.079342274803</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D7" t="n">
-        <v>686.9627028624673</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E7" t="n">
-        <v>539.0496092800742</v>
+        <v>249.632439243114</v>
       </c>
       <c r="F7" t="n">
-        <v>392.1596617821638</v>
+        <v>102.7424917452037</v>
       </c>
       <c r="G7" t="n">
-        <v>224.1731970904424</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H7" t="n">
-        <v>75.43429895394854</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="8">
@@ -4804,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2972.837166339057</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.9042569062804</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>457.9680739783734</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1318.762470917011</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1029.34530088005</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1029.34530088005</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>808.5527217365201</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589157</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828444</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5843,16 +5843,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4517.069482196493</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4517.069482196493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953646</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>277.5052172074016</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2804.65264778894</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>2635.716464861033</v>
+        <v>484.811296842976</v>
       </c>
       <c r="D28" t="n">
-        <v>2485.599825448698</v>
+        <v>484.811296842976</v>
       </c>
       <c r="E28" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>3979.184900903575</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3724.500412697688</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3435.083242660728</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3207.09369176271</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>2986.30111261918</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6457,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2965.647484649472</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>2796.711301721565</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>2646.59466230923</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E31" t="n">
-        <v>2646.59466230923</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.59466230923</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.39856302411</v>
+        <v>210.4595134598044</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866308</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4648.856429396968</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>4429.254964419909</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>4140.179737764107</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>3885.49524955822</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>3596.078079521259</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>3368.088528623242</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>3147.295949479712</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836013</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C34" t="n">
-        <v>565.7099969556945</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D34" t="n">
-        <v>565.7099969556945</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>417.7969033733013</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>417.7969033733013</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>250.6008040881813</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>2438.670847218162</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>199.7516311504066</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>294.8344935184734</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878338</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>255.5240487471575</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891665</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>41.54258064659049</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>9.000252501565598</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>116.6691671648111</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>39.70888054695403</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405032</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>46.45968844823074</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.4693302300358</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>41.54258064659049</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>66.34424953498211</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>211.1765892730634</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>40.32043864788469</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.574859240165097e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403376</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819083</v>
+        <v>48293.97000819063</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.136976983</v>
       </c>
       <c r="D4" t="n">
         <v>87914.29116309556</v>
@@ -26441,7 +26441,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
@@ -26450,13 +26450,13 @@
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744235</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744257</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809534.5425809631</v>
+        <v>-809534.5425809636</v>
       </c>
       <c r="C6" t="n">
-        <v>305217.2409949563</v>
+        <v>305217.240994956</v>
       </c>
       <c r="D6" t="n">
-        <v>145201.7782469575</v>
+        <v>145201.778246958</v>
       </c>
       <c r="E6" t="n">
-        <v>89383.04177549787</v>
+        <v>89035.66252114018</v>
       </c>
       <c r="F6" t="n">
-        <v>414795.5035828522</v>
+        <v>414448.1243284954</v>
       </c>
       <c r="G6" t="n">
-        <v>414795.5035828524</v>
+        <v>414448.1243284954</v>
       </c>
       <c r="H6" t="n">
-        <v>414795.5035828527</v>
+        <v>414448.1243284957</v>
       </c>
       <c r="I6" t="n">
-        <v>414795.5035828524</v>
+        <v>414448.1243284954</v>
       </c>
       <c r="J6" t="n">
-        <v>247190.32577287</v>
+        <v>246842.9465185128</v>
       </c>
       <c r="K6" t="n">
-        <v>414795.5035828525</v>
+        <v>414448.1243284955</v>
       </c>
       <c r="L6" t="n">
-        <v>366501.5335746617</v>
+        <v>366154.1543203049</v>
       </c>
       <c r="M6" t="n">
-        <v>329740.4756473406</v>
+        <v>329393.0963929836</v>
       </c>
       <c r="N6" t="n">
-        <v>414795.5035828524</v>
+        <v>414448.1243284955</v>
       </c>
       <c r="O6" t="n">
-        <v>414795.5035828525</v>
+        <v>414448.1243284954</v>
       </c>
       <c r="P6" t="n">
-        <v>414795.5035828525</v>
+        <v>414448.1243284955</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>310.5369023691804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>130.0327968592134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>33.79305734317526</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>145.2163291531167</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>37.77930233490395</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>327.0505757092158</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>80.8509579418146</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>303.9530049144599</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>147.5787499310937</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>244.3838270758905</v>
+        <v>94.35543628911034</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29441,7 +29441,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29699,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,46 +31439,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510285</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>726.7533607666135</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>566.6829634324471</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>630.2591755145964</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313188</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M6" t="n">
-        <v>622.455381029198</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366982</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191275</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>584.6193268445951</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>499.2977362695175</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1661236.855385524</v>
+        <v>1662997.385688309</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.39346770308133</v>
+        <v>293.7257750977136</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.038922838762</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>146.0389228387617</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>286.4836550127267</v>
       </c>
       <c r="G5" t="n">
-        <v>84.49712706373823</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542854</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172151</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.78083674902071</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>376.5836778864626</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347177</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>130.3963959210108</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>115.7063133373732</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8784673763408</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>12.96996784159884</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>277.5227458350246</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>169.8538311717799</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2371,7 +2371,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>106.2078024559208</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146491</v>
+        <v>286.5229983365869</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812466</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-4.147674796210292e-12</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>34.21058558914873</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>109.8058856274582</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.2893995353468</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>74.56049207329603</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>14.53306611597379</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>121.8000472740383</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>120.7871326503973</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>192.7715349547537</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1254.111199477248</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="C2" t="n">
-        <v>1254.111199477248</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="D2" t="n">
-        <v>1254.111199477248</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4333,7 +4333,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4363,19 +4363,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="Y2" t="n">
-        <v>1254.111199477248</v>
+        <v>1545.062936918766</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,19 +4412,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
         <v>2214.708848710446</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>937.5665200750353</v>
+        <v>2010.97379187419</v>
       </c>
       <c r="C4" t="n">
-        <v>768.6303371471284</v>
+        <v>1842.037608946283</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>1694.523545472787</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.86271359008</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.86271359008</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="X4" t="n">
-        <v>1305.873162692062</v>
+        <v>2231.76637101772</v>
       </c>
       <c r="Y4" t="n">
-        <v>1085.080583548532</v>
+        <v>2010.97379187419</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>918.0161179218674</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="C5" t="n">
-        <v>918.0161179218674</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="D5" t="n">
-        <v>918.0161179218674</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="E5" t="n">
-        <v>918.0161179218674</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="F5" t="n">
-        <v>507.0302131322598</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4564,55 +4564,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362813</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926628</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532452</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796632</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453061</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182947</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218674</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="Y5" t="n">
-        <v>918.0161179218674</v>
+        <v>1126.76175931604</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380218</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694936</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657498</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378429</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255072</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>249.632439243114</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>102.7424917452037</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312206</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.03939913952</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959895</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2012.898941548398</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1643.936424607986</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1285.670726001236</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>899.8824734029915</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>488.896568613384</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4840,16 +4840,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450754</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y8" t="n">
-        <v>2424.744041450754</v>
+        <v>2012.898941548398</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239594</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397178</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>747.3584617859333</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>597.2418223735975</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>449.3287287912044</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138402</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400717</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576786</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2433.862105962484</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2251.007271617388</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2031.40580664033</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1742.330579984527</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1487.64609177864</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1262.131839212678</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>813.3497091711304</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6013,10 +6013,10 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1430.93136433652</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1202.941813438502</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>982.1492342949722</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6363,25 +6363,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>484.811296842976</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>484.811296842976</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6487,25 +6487,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>377.6556127449245</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>377.6556127449245</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>210.4595134598044</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6654,19 +6654,19 @@
         <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6715,13 +6715,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>605.645163642942</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>457.7320700605488</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>310.8421225626385</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.70136564882</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7183,31 +7183,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400749</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400749</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277391</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797189</v>
@@ -7344,40 +7344,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138447</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703146</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>294.8344935184734</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>30.36925650589512</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878338</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154984</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>15.02465210192042</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>41.54258064659049</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>53.40527886852286</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>9.000252501566365</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>116.6691671648111</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>73.62417772601653</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405032</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>106.0841272570751</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>176.3785887617859</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.54258064659049</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>90.96364621897281</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>211.1765892730634</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>24.63391537253091</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>46.45968844823057</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>24.63391537253457</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041667</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041667</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="15">
@@ -26322,22 +26322,22 @@
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985037</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="K2" t="n">
         <v>524645.2897985039</v>
@@ -26349,13 +26349,13 @@
         <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26368,37 +26368,37 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>4.574859240165097e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819063</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.136976983</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26453,10 +26453,10 @@
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744235</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744257</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-809534.5425809636</v>
       </c>
       <c r="C6" t="n">
-        <v>305217.240994956</v>
+        <v>305217.2409949565</v>
       </c>
       <c r="D6" t="n">
-        <v>145201.778246958</v>
+        <v>145201.7782469576</v>
       </c>
       <c r="E6" t="n">
-        <v>89035.66252114018</v>
+        <v>89348.30385006212</v>
       </c>
       <c r="F6" t="n">
-        <v>414448.1243284954</v>
+        <v>414760.7656574164</v>
       </c>
       <c r="G6" t="n">
-        <v>414448.1243284954</v>
+        <v>414760.7656574166</v>
       </c>
       <c r="H6" t="n">
-        <v>414448.1243284957</v>
+        <v>414760.7656574166</v>
       </c>
       <c r="I6" t="n">
-        <v>414448.1243284954</v>
+        <v>414760.7656574167</v>
       </c>
       <c r="J6" t="n">
-        <v>246842.9465185128</v>
+        <v>247155.5878474341</v>
       </c>
       <c r="K6" t="n">
-        <v>414448.1243284955</v>
+        <v>414760.7656574167</v>
       </c>
       <c r="L6" t="n">
-        <v>366154.1543203049</v>
+        <v>366466.7956492261</v>
       </c>
       <c r="M6" t="n">
-        <v>329393.0963929836</v>
+        <v>329705.737721905</v>
       </c>
       <c r="N6" t="n">
-        <v>414448.1243284955</v>
+        <v>414760.7656574168</v>
       </c>
       <c r="O6" t="n">
-        <v>414448.1243284954</v>
+        <v>414760.765657417</v>
       </c>
       <c r="P6" t="n">
-        <v>414448.1243284955</v>
+        <v>414760.7656574168</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26792,13 +26792,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26810,13 +26810,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26962,25 +26962,25 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,20 +27014,20 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>190.8166233022539</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973553</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="D4" t="n">
-        <v>190.8166233022534</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973558</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,19 +27260,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>190.8166233022539</v>
+      </c>
+      <c r="M4" t="n">
+        <v>341.3068326973553</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="L4" t="n">
-        <v>190.8166233022534</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973558</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>310.5369023691804</v>
+        <v>88.20459497454823</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.79305734317526</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>2.576550179450663</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>120.3923907289848</v>
       </c>
       <c r="G5" t="n">
-        <v>327.0505757092158</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193757</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193759</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>303.9530049144599</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>34.33804776699088</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>94.35543628911034</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29258,7 +29258,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29441,7 +29441,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30416,7 +30416,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767382</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31439,22 +31439,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31463,22 +31463,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>549.9198891312112</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34792,10 +34792,10 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>630.2591755145964</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313188</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>407.3236446867668</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899105</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
